--- a/outputs-r202/test-g__UBA1213.xlsx
+++ b/outputs-r202/test-g__UBA1213.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="65">
   <si>
     <t>Row</t>
   </si>
@@ -229,7 +229,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -239,14 +239,18 @@
     </border>
     <border/>
     <border/>
+    <border/>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -315,168 +319,168 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="K1" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="L1" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="M1" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="N1" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="O1" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="P1" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="Q1" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="R1" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="S1" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="T1" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="U1" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="V1" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="W1" s="1" t="s">
+      <c r="W1" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="X1" s="1" t="s">
+      <c r="X1" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="Y1" s="1" t="s">
+      <c r="Y1" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="Z1" s="1" t="s">
+      <c r="Z1" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="AA1" s="1" t="s">
+      <c r="AA1" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="AB1" s="1" t="s">
+      <c r="AB1" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="AC1" s="1" t="s">
+      <c r="AC1" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="AD1" s="1" t="s">
+      <c r="AD1" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="AE1" s="1" t="s">
+      <c r="AE1" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="AF1" s="1" t="s">
+      <c r="AF1" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="AG1" s="1" t="s">
+      <c r="AG1" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="AH1" s="1" t="s">
+      <c r="AH1" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="AI1" s="1" t="s">
+      <c r="AI1" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="AJ1" s="1" t="s">
+      <c r="AJ1" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="AK1" s="1" t="s">
+      <c r="AK1" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="AL1" s="1" t="s">
+      <c r="AL1" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="AM1" s="1" t="s">
+      <c r="AM1" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="AN1" s="1" t="s">
+      <c r="AN1" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="AO1" s="1" t="s">
+      <c r="AO1" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="AP1" s="1" t="s">
+      <c r="AP1" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="AQ1" s="1" t="s">
+      <c r="AQ1" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="AR1" s="1" t="s">
+      <c r="AR1" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="AS1" s="1" t="s">
+      <c r="AS1" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="AT1" s="1" t="s">
+      <c r="AT1" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="AU1" s="1" t="s">
+      <c r="AU1" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="AV1" s="1" t="s">
+      <c r="AV1" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="AW1" s="1" t="s">
+      <c r="AW1" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="AX1" s="1" t="s">
+      <c r="AX1" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="AY1" s="1" t="s">
+      <c r="AY1" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="AZ1" s="1" t="s">
+      <c r="AZ1" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="BA1" s="1" t="s">
+      <c r="BA1" s="3" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
       <c r="B2">
@@ -637,7 +641,7 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="1" t="s">
+      <c r="A3" s="3" t="s">
         <v>2</v>
       </c>
       <c r="B3">
@@ -798,7 +802,7 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="1" t="s">
+      <c r="A4" s="3" t="s">
         <v>3</v>
       </c>
       <c r="B4">
@@ -959,7 +963,7 @@
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="1" t="s">
+      <c r="A5" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B5">
@@ -1120,7 +1124,7 @@
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="s">
+      <c r="A6" s="3" t="s">
         <v>5</v>
       </c>
       <c r="B6">
@@ -1281,7 +1285,7 @@
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="1" t="s">
+      <c r="A7" s="3" t="s">
         <v>6</v>
       </c>
       <c r="B7">
@@ -1442,7 +1446,7 @@
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="s">
+      <c r="A8" s="3" t="s">
         <v>7</v>
       </c>
       <c r="B8">
@@ -1603,7 +1607,7 @@
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="1" t="s">
+      <c r="A9" s="3" t="s">
         <v>8</v>
       </c>
       <c r="B9">
@@ -1764,7 +1768,7 @@
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="1" t="s">
+      <c r="A10" s="3" t="s">
         <v>9</v>
       </c>
       <c r="B10">
@@ -1925,7 +1929,7 @@
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="1" t="s">
+      <c r="A11" s="3" t="s">
         <v>10</v>
       </c>
       <c r="B11">
@@ -2086,7 +2090,7 @@
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="s">
+      <c r="A12" s="3" t="s">
         <v>11</v>
       </c>
       <c r="B12">
@@ -2247,7 +2251,7 @@
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="1" t="s">
+      <c r="A13" s="3" t="s">
         <v>12</v>
       </c>
       <c r="B13">
